--- a/Product_Approval_Pckg.xlsx
+++ b/Product_Approval_Pckg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Documents\GitHub\CTS_ATIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC94520-51A8-4998-873F-22BF86D79338}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B069DF-C881-41A8-8529-EE3AF14ABD7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="1170" windowWidth="20415" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="2340" windowWidth="20415" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
